--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T17:47:22-03:00</t>
+    <t>2024-09-09T18:39:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T18:39:42-03:00</t>
+    <t>2024-09-10T08:50:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T08:50:18-03:00</t>
+    <t>2025-02-21T13:43:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:43:19-03:00</t>
+    <t>2025-03-20T08:51:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>AllergyIntolerance.patient.reference</t>
+  </si>
+  <si>
+    <t>Cadena de referencia específica al paciente que presenta la alérgia.</t>
   </si>
   <si>
     <t>Cadena de referencia específica al paciente que presenta la alergia.</t>
@@ -4392,10 +4395,10 @@
         <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4445,7 +4448,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4454,7 +4457,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4471,10 +4474,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4500,13 +4503,13 @@
         <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4532,13 +4535,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4556,7 +4559,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4582,10 +4585,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4611,13 +4614,13 @@
         <v>152</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4667,7 +4670,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4682,7 +4685,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4693,10 +4696,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4722,13 +4725,13 @@
         <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4778,7 +4781,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4804,10 +4807,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4830,13 +4833,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4887,7 +4890,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4902,10 +4905,10 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4913,10 +4916,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4939,13 +4942,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4996,7 +4999,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5011,10 +5014,10 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5022,10 +5025,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5048,13 +5051,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5105,7 +5108,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5120,25 +5123,25 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5157,13 +5160,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5214,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5229,10 +5232,10 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5240,14 +5243,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5266,16 +5269,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5325,7 +5328,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5340,21 +5343,21 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5377,16 +5380,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5436,7 +5439,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5451,7 +5454,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5462,10 +5465,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5488,16 +5491,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5547,7 +5550,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5562,7 +5565,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5573,10 +5576,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5599,13 +5602,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5656,7 +5659,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5671,7 +5674,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5682,10 +5685,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5791,10 +5794,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5902,14 +5905,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5931,10 +5934,10 @@
         <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>148</v>
@@ -5989,7 +5992,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6015,10 +6018,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6044,13 +6047,13 @@
         <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6079,10 +6082,10 @@
         <v>211</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6100,7 +6103,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6115,7 +6118,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -6126,14 +6129,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6155,13 +6158,13 @@
         <v>161</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6190,10 +6193,10 @@
         <v>211</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6211,7 +6214,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6232,19 +6235,19 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6266,13 +6269,13 @@
         <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6322,7 +6325,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6337,7 +6340,7 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6348,10 +6351,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6374,13 +6377,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6431,7 +6434,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6446,21 +6449,21 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6486,13 +6489,13 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6521,10 +6524,10 @@
         <v>165</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6542,7 +6545,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6568,10 +6571,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6597,13 +6600,13 @@
         <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6632,10 +6635,10 @@
         <v>211</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -6653,7 +6656,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6668,7 +6671,7 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -6679,10 +6682,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6705,16 +6708,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6764,7 +6767,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6779,7 +6782,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T08:51:13-03:00</t>
+    <t>2025-03-24T09:32:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:32:33-03:00</t>
+    <t>2025-03-24T16:25:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:25:06-03:00</t>
+    <t>2025-03-25T08:49:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T08:49:07-03:00</t>
+    <t>2025-04-08T14:01:09-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T14:01:09-03:00</t>
+    <t>2025-04-08T16:57:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T16:57:34-03:00</t>
+    <t>2025-04-10T19:36:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T19:36:54-03:00</t>
+    <t>2025-04-11T11:36:21-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-AlergiaCo.xlsx
+++ b/docs/v043/StructureDefinition-AlergiaCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:36:21-03:00</t>
+    <t>2025-04-11T11:51:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
